--- a/arhivs/2022/rezultati/FKO 1. kārtas rezultāti.xlsx
+++ b/arhivs/2022/rezultati/FKO 1. kārtas rezultāti.xlsx
@@ -5,10 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\fko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF330DB0-521D-4B83-8D64-1870E4257846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F997A10-4A6E-4D0B-AB91-7DC5186769EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="27332" windowHeight="14880" activeTab="4" xr2:uid="{03AB391B-E941-1C49-9BBC-467FCE0A4710}"/>
   </bookViews>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="123">
   <si>
     <t>Decibeli</t>
   </si>
@@ -401,13 +402,19 @@
   </si>
   <si>
     <t>Diskvalificēta</t>
+  </si>
+  <si>
+    <t>Maža šakāļi</t>
+  </si>
+  <si>
+    <t>JareksG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -505,6 +512,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -532,7 +546,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -688,12 +702,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -720,7 +745,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -765,6 +789,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1083,7 +1111,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16.25" x14ac:dyDescent="0.3"/>
@@ -1302,7 +1330,7 @@
       <c r="A9" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="68">
+      <c r="B9" s="67">
         <v>0</v>
       </c>
       <c r="C9" s="11">
@@ -1326,7 +1354,7 @@
       <c r="A10" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="68">
+      <c r="B10" s="67">
         <v>0</v>
       </c>
       <c r="C10" s="11">
@@ -1350,7 +1378,7 @@
       <c r="A11" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="68">
+      <c r="B11" s="67">
         <v>3</v>
       </c>
       <c r="C11" s="11">
@@ -1375,7 +1403,7 @@
       <c r="A12" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="68">
+      <c r="B12" s="67">
         <v>0</v>
       </c>
       <c r="C12" s="11">
@@ -1399,7 +1427,7 @@
       <c r="A13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="68">
+      <c r="B13" s="67">
         <v>0</v>
       </c>
       <c r="C13" s="11">
@@ -1423,7 +1451,7 @@
       <c r="A14" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="68">
+      <c r="B14" s="67">
         <v>0</v>
       </c>
       <c r="C14" s="11">
@@ -1447,7 +1475,7 @@
       <c r="A15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="68">
+      <c r="B15" s="67">
         <v>0</v>
       </c>
       <c r="C15" s="11">
@@ -1471,7 +1499,7 @@
       <c r="A16" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="68">
+      <c r="B16" s="67">
         <v>0</v>
       </c>
       <c r="C16" s="11">
@@ -1495,7 +1523,7 @@
       <c r="A17" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="69">
+      <c r="B17" s="68">
         <v>0</v>
       </c>
       <c r="C17" s="11">
@@ -1519,7 +1547,7 @@
       <c r="A18" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="70">
+      <c r="B18" s="69">
         <v>0</v>
       </c>
       <c r="C18" s="23">
@@ -1551,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C825CC-81E0-6A4F-8F76-0126F1D34A87}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16.25" x14ac:dyDescent="0.3"/>
@@ -1616,12 +1644,12 @@
         <v>9</v>
       </c>
       <c r="H2" s="17">
-        <f t="shared" ref="H2:H17" si="0">SUM(B2:G2)</f>
+        <f t="shared" ref="H2" si="0">SUM(B2:G2)</f>
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="32" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -1766,8 +1794,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>45</v>
+      <c r="A8" s="70" t="s">
+        <v>121</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>118</v>
@@ -1795,252 +1823,281 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B10" s="11">
         <v>3</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C10" s="11">
         <f>4+2+2</f>
         <v>8</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="11">
         <f>1+1+1</f>
         <v>3</v>
       </c>
-      <c r="E9" s="11">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11">
         <v>4</v>
       </c>
-      <c r="H9" s="17">
-        <f t="shared" si="0"/>
+      <c r="H10" s="17">
+        <f t="shared" ref="H10:H18" si="1">SUM(B10:G10)</f>
         <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="11">
-        <v>2</v>
-      </c>
-      <c r="C10" s="11">
-        <v>8</v>
-      </c>
-      <c r="D10" s="11">
-        <v>2</v>
-      </c>
-      <c r="E10" s="11">
-        <v>4</v>
-      </c>
-      <c r="F10" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="17">
-        <f t="shared" si="0"/>
-        <v>19.5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11">
+        <v>8</v>
+      </c>
+      <c r="D11" s="11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="11">
+        <v>4</v>
+      </c>
+      <c r="F11" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
+        <f t="shared" si="1"/>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
         <v>10</v>
       </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F12" s="11">
         <v>1.5</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G12" s="11">
         <v>3.5</v>
       </c>
-      <c r="H11" s="17">
-        <f>SUM(B11:G11)</f>
+      <c r="H12" s="17">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="11">
-        <v>0</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11">
         <v>2</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="11">
         <f>1+2+1</f>
         <v>4</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="11">
         <f>1.5+1+1.5</f>
         <v>4</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G13" s="11">
         <f>1+1+1+1</f>
         <v>4</v>
       </c>
-      <c r="H12" s="17">
-        <f t="shared" si="0"/>
+      <c r="H13" s="17">
+        <f t="shared" si="1"/>
         <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="11">
-        <v>2</v>
-      </c>
-      <c r="C13" s="11">
-        <v>3</v>
-      </c>
-      <c r="D13" s="11">
-        <v>2</v>
-      </c>
-      <c r="E13" s="11">
-        <v>4</v>
-      </c>
-      <c r="F13" s="11">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="17">
-        <f t="shared" si="0"/>
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B14" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D14" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="11">
         <v>0</v>
       </c>
       <c r="H14" s="17">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B15" s="11">
         <v>0</v>
       </c>
       <c r="C15" s="11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" s="11">
         <v>0</v>
       </c>
       <c r="E15" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" s="11">
         <v>0</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>0</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11">
+        <v>9</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="11">
-        <v>0</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B17" s="11">
+        <v>0</v>
+      </c>
+      <c r="C17" s="11">
         <v>3</v>
       </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11">
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
         <v>2</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F17" s="11">
         <v>2.5</v>
       </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="17">
-        <f t="shared" si="0"/>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.95" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="22" t="s">
+    <row r="18" spans="1:8" ht="16.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="23">
-        <v>0</v>
-      </c>
-      <c r="C17" s="23">
-        <v>0</v>
-      </c>
-      <c r="D17" s="23">
-        <v>0</v>
-      </c>
-      <c r="E17" s="23">
-        <v>0</v>
-      </c>
-      <c r="F17" s="23">
-        <v>0</v>
-      </c>
-      <c r="G17" s="23">
-        <v>0</v>
-      </c>
-      <c r="H17" s="24">
-        <f t="shared" si="0"/>
+      <c r="B18" s="23">
+        <v>0</v>
+      </c>
+      <c r="C18" s="23">
+        <v>0</v>
+      </c>
+      <c r="D18" s="23">
+        <v>0</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0</v>
+      </c>
+      <c r="F18" s="23">
+        <v>0</v>
+      </c>
+      <c r="G18" s="23">
+        <v>0</v>
+      </c>
+      <c r="H18" s="24">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2050,15 +2107,16 @@
     <sortCondition descending="1" ref="H3:H17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05DDF7B-98ED-2649-935B-9DE45408DE35}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16.25" x14ac:dyDescent="0.3"/>
@@ -2074,80 +2132,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="26">
         <v>12</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="26">
         <v>12</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="26">
         <v>21</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="26">
         <v>7</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="26">
         <v>19</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="26">
         <v>14</v>
       </c>
-      <c r="H2" s="32">
-        <f t="shared" ref="H2:H8" si="0">SUM(B2:G2)</f>
+      <c r="H2" s="31">
+        <f t="shared" ref="H2" si="0">SUM(B2:G2)</f>
         <v>85</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="32" t="s">
+      <c r="B3" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="31" t="s">
         <v>118</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -2156,28 +2214,28 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="32" t="s">
+      <c r="B4" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="31" t="s">
         <v>118</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -2186,28 +2244,28 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" s="32" t="s">
+      <c r="B5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="31" t="s">
         <v>118</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -2216,28 +2274,28 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="32" t="s">
+      <c r="B6" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="31" t="s">
         <v>118</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -2246,28 +2304,28 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" s="32" t="s">
+      <c r="B7" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="31" t="s">
         <v>118</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -2276,28 +2334,28 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" s="32" t="s">
+      <c r="B8" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="31" t="s">
         <v>118</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -2309,25 +2367,25 @@
       <c r="A9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>2</v>
       </c>
-      <c r="C9" s="27">
-        <v>1</v>
-      </c>
-      <c r="D9" s="27">
-        <v>0</v>
-      </c>
-      <c r="E9" s="27">
+      <c r="C9" s="26">
+        <v>1</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0</v>
+      </c>
+      <c r="E9" s="26">
         <v>1.5</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="26">
         <v>17</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="26">
         <v>2</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="31">
         <f>SUM(B9:G9)</f>
         <v>23.5</v>
       </c>
@@ -2337,26 +2395,26 @@
       <c r="A10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <v>2</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <v>3</v>
       </c>
-      <c r="D10" s="27">
-        <v>0</v>
-      </c>
-      <c r="E10" s="27">
-        <v>0</v>
-      </c>
-      <c r="F10" s="27">
+      <c r="D10" s="26">
+        <v>0</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0</v>
+      </c>
+      <c r="F10" s="26">
         <v>15</v>
       </c>
-      <c r="G10" s="27">
-        <v>1</v>
-      </c>
-      <c r="H10" s="32">
-        <f t="shared" ref="H10:H22" si="1">SUM(B10:G10)</f>
+      <c r="G10" s="26">
+        <v>1</v>
+      </c>
+      <c r="H10" s="31">
+        <f t="shared" ref="H10:H23" si="1">SUM(B10:G10)</f>
         <v>21</v>
       </c>
       <c r="I10" s="2"/>
@@ -2365,26 +2423,26 @@
       <c r="A11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="26">
         <v>4</v>
       </c>
-      <c r="C11" s="27">
-        <v>1</v>
-      </c>
-      <c r="D11" s="27">
-        <v>0</v>
-      </c>
-      <c r="E11" s="27">
+      <c r="C11" s="26">
+        <v>1</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0</v>
+      </c>
+      <c r="E11" s="26">
         <v>1.5</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="26">
         <f>1+3+2+2+2+3</f>
         <v>13</v>
       </c>
-      <c r="G11" s="27">
-        <v>1</v>
-      </c>
-      <c r="H11" s="32">
+      <c r="G11" s="26">
+        <v>1</v>
+      </c>
+      <c r="H11" s="31">
         <f t="shared" si="1"/>
         <v>20.5</v>
       </c>
@@ -2394,27 +2452,27 @@
       <c r="A12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="27">
-        <v>0</v>
-      </c>
-      <c r="C12" s="27">
-        <v>0</v>
-      </c>
-      <c r="D12" s="27">
+      <c r="B12" s="26">
+        <v>0</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0</v>
+      </c>
+      <c r="D12" s="26">
         <v>7</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="26">
         <v>1.5</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="26">
         <f>1+2+2+3</f>
         <v>8</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="26">
         <f>1+2+1</f>
         <v>4</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="31">
         <f t="shared" si="1"/>
         <v>20.5</v>
       </c>
@@ -2424,25 +2482,25 @@
       <c r="A13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="27">
-        <v>0</v>
-      </c>
-      <c r="C13" s="27">
-        <v>1</v>
-      </c>
-      <c r="D13" s="27">
-        <v>0</v>
-      </c>
-      <c r="E13" s="27">
+      <c r="B13" s="26">
+        <v>0</v>
+      </c>
+      <c r="C13" s="26">
+        <v>1</v>
+      </c>
+      <c r="D13" s="26">
+        <v>0</v>
+      </c>
+      <c r="E13" s="26">
         <v>1.5</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="26">
         <v>12</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="26">
         <v>6</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="31">
         <f t="shared" si="1"/>
         <v>20.5</v>
       </c>
@@ -2452,289 +2510,318 @@
       <c r="A14" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="26">
         <v>2</v>
       </c>
-      <c r="C14" s="27">
-        <v>1</v>
-      </c>
-      <c r="D14" s="27">
-        <v>0</v>
-      </c>
-      <c r="E14" s="27">
-        <v>0</v>
-      </c>
-      <c r="F14" s="27">
+      <c r="C14" s="26">
+        <v>1</v>
+      </c>
+      <c r="D14" s="26">
+        <v>0</v>
+      </c>
+      <c r="E14" s="26">
+        <v>0</v>
+      </c>
+      <c r="F14" s="26">
         <f>1+2+1+3+2+3+3</f>
         <v>15</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="26">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="31">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="71">
+        <v>0</v>
+      </c>
+      <c r="C15" s="71">
+        <v>1</v>
+      </c>
+      <c r="D15" s="71">
+        <v>0</v>
+      </c>
+      <c r="E15" s="71">
+        <v>3</v>
+      </c>
+      <c r="F15" s="11">
+        <f>1+2+1+2+3+3</f>
+        <v>12</v>
+      </c>
+      <c r="G15" s="71">
+        <v>1</v>
+      </c>
+      <c r="H15" s="73">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="27">
-        <v>0</v>
-      </c>
-      <c r="C15" s="27">
-        <v>1</v>
-      </c>
-      <c r="D15" s="27">
+      <c r="B16" s="26">
+        <v>0</v>
+      </c>
+      <c r="C16" s="26">
+        <v>1</v>
+      </c>
+      <c r="D16" s="26">
         <v>4</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E16" s="26">
         <v>1.5</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F16" s="26">
         <v>7</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G16" s="26">
         <v>6</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H16" s="31">
         <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="27">
-        <v>0</v>
-      </c>
-      <c r="C16" s="27">
+      <c r="B17" s="26">
+        <v>0</v>
+      </c>
+      <c r="C17" s="26">
         <v>4</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D17" s="26">
         <v>4</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E17" s="26">
         <v>1.5</v>
       </c>
-      <c r="F16" s="27">
-        <v>1</v>
-      </c>
-      <c r="G16" s="27">
+      <c r="F17" s="26">
+        <v>1</v>
+      </c>
+      <c r="G17" s="26">
         <f>1+1+2+1</f>
         <v>5</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H17" s="31">
         <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="27">
-        <v>0</v>
-      </c>
-      <c r="C17" s="27">
-        <v>1</v>
-      </c>
-      <c r="D17" s="27">
+      <c r="B18" s="26">
+        <v>0</v>
+      </c>
+      <c r="C18" s="26">
+        <v>1</v>
+      </c>
+      <c r="D18" s="26">
         <v>5</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E18" s="26">
         <v>1.5</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F18" s="26">
         <f>1+2+1+2</f>
         <v>6</v>
       </c>
-      <c r="G17" s="27">
-        <v>1</v>
-      </c>
-      <c r="H17" s="32">
+      <c r="G18" s="26">
+        <v>1</v>
+      </c>
+      <c r="H18" s="31">
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="27">
-        <v>0</v>
-      </c>
-      <c r="C18" s="27">
-        <v>1</v>
-      </c>
-      <c r="D18" s="27">
+      <c r="B19" s="26">
+        <v>0</v>
+      </c>
+      <c r="C19" s="26">
+        <v>1</v>
+      </c>
+      <c r="D19" s="26">
         <v>4</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E19" s="26">
         <v>1.5</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F19" s="26">
         <v>7</v>
       </c>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="32">
+      <c r="G19" s="26">
+        <v>1</v>
+      </c>
+      <c r="H19" s="31">
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="27">
-        <v>0</v>
-      </c>
-      <c r="C19" s="27">
+      <c r="B20" s="26">
+        <v>0</v>
+      </c>
+      <c r="C20" s="26">
         <v>4</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D20" s="26">
         <v>2</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E20" s="26">
         <v>1.5</v>
       </c>
-      <c r="F19" s="27">
-        <v>0</v>
-      </c>
-      <c r="G19" s="27">
+      <c r="F20" s="26">
+        <v>0</v>
+      </c>
+      <c r="G20" s="26">
         <v>2</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H20" s="31">
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="27">
-        <v>0</v>
-      </c>
-      <c r="C20" s="27">
-        <v>1</v>
-      </c>
-      <c r="D20" s="27">
-        <v>0</v>
-      </c>
-      <c r="E20" s="27">
+      <c r="B21" s="26">
+        <v>0</v>
+      </c>
+      <c r="C21" s="26">
+        <v>1</v>
+      </c>
+      <c r="D21" s="26">
+        <v>0</v>
+      </c>
+      <c r="E21" s="26">
         <v>1.5</v>
       </c>
-      <c r="F20" s="27">
-        <v>1</v>
-      </c>
-      <c r="G20" s="27">
-        <v>0</v>
-      </c>
-      <c r="H20" s="32">
+      <c r="F21" s="26">
+        <v>1</v>
+      </c>
+      <c r="G21" s="26">
+        <v>0</v>
+      </c>
+      <c r="H21" s="31">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B22" s="26">
         <v>2</v>
       </c>
-      <c r="C21" s="27">
-        <v>0</v>
-      </c>
-      <c r="D21" s="27">
-        <v>0</v>
-      </c>
-      <c r="E21" s="27">
+      <c r="C22" s="26">
+        <v>0</v>
+      </c>
+      <c r="D22" s="26">
+        <v>0</v>
+      </c>
+      <c r="E22" s="26">
         <v>0.5</v>
       </c>
-      <c r="F21" s="27">
-        <v>0</v>
-      </c>
-      <c r="G21" s="27">
-        <v>0</v>
-      </c>
-      <c r="H21" s="32">
+      <c r="F22" s="26">
+        <v>0</v>
+      </c>
+      <c r="G22" s="26">
+        <v>0</v>
+      </c>
+      <c r="H22" s="31">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="27">
-        <v>0</v>
-      </c>
-      <c r="C22" s="27">
-        <v>0</v>
-      </c>
-      <c r="D22" s="27">
-        <v>0</v>
-      </c>
-      <c r="E22" s="27">
+      <c r="B23" s="26">
+        <v>0</v>
+      </c>
+      <c r="C23" s="26">
+        <v>0</v>
+      </c>
+      <c r="D23" s="26">
+        <v>0</v>
+      </c>
+      <c r="E23" s="26">
         <v>0.5</v>
       </c>
-      <c r="F22" s="27">
-        <v>0</v>
-      </c>
-      <c r="G22" s="27">
-        <v>1</v>
-      </c>
-      <c r="H22" s="32">
+      <c r="F23" s="26">
+        <v>0</v>
+      </c>
+      <c r="G23" s="26">
+        <v>1</v>
+      </c>
+      <c r="H23" s="31">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="16.95" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="34" t="s">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="35">
-        <v>0</v>
-      </c>
-      <c r="C23" s="35">
-        <v>0</v>
-      </c>
-      <c r="D23" s="35">
-        <v>0</v>
-      </c>
-      <c r="E23" s="35">
-        <v>0</v>
-      </c>
-      <c r="F23" s="35">
-        <v>0</v>
-      </c>
-      <c r="G23" s="35">
-        <v>0</v>
-      </c>
-      <c r="H23" s="36">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2"/>
+      <c r="B24" s="34">
+        <v>0</v>
+      </c>
+      <c r="C24" s="34">
+        <v>0</v>
+      </c>
+      <c r="D24" s="34">
+        <v>0</v>
+      </c>
+      <c r="E24" s="34">
+        <v>0</v>
+      </c>
+      <c r="F24" s="34">
+        <v>0</v>
+      </c>
+      <c r="G24" s="34">
+        <v>0</v>
+      </c>
+      <c r="H24" s="35">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H24">
-    <sortCondition descending="1" ref="H3:H24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H25">
+    <sortCondition descending="1" ref="H3:H25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2763,88 +2850,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="43" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="36">
         <v>14</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="36">
         <v>7</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="36">
         <v>16</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="36">
         <v>12</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="36">
         <v>9</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="36">
         <v>6.5</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="36">
         <v>12</v>
       </c>
-      <c r="I2" s="46">
-        <f t="shared" ref="I2:I24" si="0">SUM(B2:H2)</f>
+      <c r="I2" s="45">
+        <f t="shared" ref="I2:I22" si="0">SUM(B2:H2)</f>
         <v>76.5</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" s="48" t="s">
+      <c r="B3" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="47" t="s">
         <v>118</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -2852,31 +2939,31 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="I4" s="48" t="s">
+      <c r="B4" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="47" t="s">
         <v>118</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -2884,31 +2971,31 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="48" t="s">
+      <c r="B5" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="47" t="s">
         <v>118</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -2916,31 +3003,31 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="I6" s="48" t="s">
+      <c r="B6" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" s="47" t="s">
         <v>118</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -2948,31 +3035,31 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="I7" s="48" t="s">
+      <c r="B7" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="47" t="s">
         <v>118</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -2980,31 +3067,31 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" s="48" t="s">
+      <c r="B8" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="47" t="s">
         <v>118</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -3012,451 +3099,451 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="38">
-        <v>0</v>
-      </c>
-      <c r="C9" s="38">
+      <c r="B9" s="37">
+        <v>0</v>
+      </c>
+      <c r="C9" s="37">
         <v>2.5</v>
       </c>
-      <c r="D9" s="38">
-        <v>0</v>
-      </c>
-      <c r="E9" s="38">
+      <c r="D9" s="37">
+        <v>0</v>
+      </c>
+      <c r="E9" s="37">
         <v>4</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="37">
         <v>2</v>
       </c>
-      <c r="G9" s="38">
-        <v>0</v>
-      </c>
-      <c r="H9" s="38">
-        <v>1</v>
-      </c>
-      <c r="I9" s="48">
+      <c r="G9" s="37">
+        <v>0</v>
+      </c>
+      <c r="H9" s="37">
+        <v>1</v>
+      </c>
+      <c r="I9" s="47">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="38">
-        <v>0</v>
-      </c>
-      <c r="C10" s="38">
-        <v>0</v>
-      </c>
-      <c r="D10" s="38">
-        <v>0</v>
-      </c>
-      <c r="E10" s="38">
+      <c r="B10" s="37">
+        <v>0</v>
+      </c>
+      <c r="C10" s="37">
+        <v>0</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0</v>
+      </c>
+      <c r="E10" s="37">
         <v>4</v>
       </c>
-      <c r="F10" s="38">
-        <v>1</v>
-      </c>
-      <c r="G10" s="38">
+      <c r="F10" s="37">
+        <v>1</v>
+      </c>
+      <c r="G10" s="37">
         <v>1.5</v>
       </c>
-      <c r="H10" s="38">
-        <v>1</v>
-      </c>
-      <c r="I10" s="48">
+      <c r="H10" s="37">
+        <v>1</v>
+      </c>
+      <c r="I10" s="47">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="37">
         <v>1.5</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="37">
         <v>1.5</v>
       </c>
-      <c r="D11" s="38">
-        <v>0</v>
-      </c>
-      <c r="E11" s="38">
+      <c r="D11" s="37">
+        <v>0</v>
+      </c>
+      <c r="E11" s="37">
         <v>3</v>
       </c>
-      <c r="F11" s="38">
-        <v>1</v>
-      </c>
-      <c r="G11" s="38">
-        <v>0</v>
-      </c>
-      <c r="H11" s="38">
-        <v>0</v>
-      </c>
-      <c r="I11" s="48">
+      <c r="F11" s="37">
+        <v>1</v>
+      </c>
+      <c r="G11" s="37">
+        <v>0</v>
+      </c>
+      <c r="H11" s="37">
+        <v>0</v>
+      </c>
+      <c r="I11" s="47">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="38">
-        <v>0</v>
-      </c>
-      <c r="C12" s="38">
+      <c r="B12" s="37">
+        <v>0</v>
+      </c>
+      <c r="C12" s="37">
         <v>1.5</v>
       </c>
-      <c r="D12" s="38">
-        <v>0</v>
-      </c>
-      <c r="E12" s="38">
-        <v>0</v>
-      </c>
-      <c r="F12" s="38">
-        <v>1</v>
-      </c>
-      <c r="G12" s="38">
-        <v>0</v>
-      </c>
-      <c r="H12" s="38">
+      <c r="D12" s="37">
+        <v>0</v>
+      </c>
+      <c r="E12" s="37">
+        <v>0</v>
+      </c>
+      <c r="F12" s="37">
+        <v>1</v>
+      </c>
+      <c r="G12" s="37">
+        <v>0</v>
+      </c>
+      <c r="H12" s="37">
         <v>4</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="47">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="38">
-        <v>0</v>
-      </c>
-      <c r="C13" s="38">
+      <c r="B13" s="37">
+        <v>0</v>
+      </c>
+      <c r="C13" s="37">
         <v>1.5</v>
       </c>
-      <c r="D13" s="38">
-        <v>0</v>
-      </c>
-      <c r="E13" s="38">
+      <c r="D13" s="37">
+        <v>0</v>
+      </c>
+      <c r="E13" s="37">
         <v>2</v>
       </c>
-      <c r="F13" s="38">
-        <v>0</v>
-      </c>
-      <c r="G13" s="38">
+      <c r="F13" s="37">
+        <v>0</v>
+      </c>
+      <c r="G13" s="37">
         <v>1.5</v>
       </c>
-      <c r="H13" s="38">
-        <v>1</v>
-      </c>
-      <c r="I13" s="48">
+      <c r="H13" s="37">
+        <v>1</v>
+      </c>
+      <c r="I13" s="47">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="38">
-        <v>0</v>
-      </c>
-      <c r="C14" s="38">
+      <c r="B14" s="37">
+        <v>0</v>
+      </c>
+      <c r="C14" s="37">
         <v>1.5</v>
       </c>
-      <c r="D14" s="38">
-        <v>0</v>
-      </c>
-      <c r="E14" s="38">
+      <c r="D14" s="37">
+        <v>0</v>
+      </c>
+      <c r="E14" s="37">
         <v>2</v>
       </c>
-      <c r="F14" s="38">
-        <v>1</v>
-      </c>
-      <c r="G14" s="38">
-        <v>0</v>
-      </c>
-      <c r="H14" s="38">
-        <v>1</v>
-      </c>
-      <c r="I14" s="48">
+      <c r="F14" s="37">
+        <v>1</v>
+      </c>
+      <c r="G14" s="37">
+        <v>0</v>
+      </c>
+      <c r="H14" s="37">
+        <v>1</v>
+      </c>
+      <c r="I14" s="47">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="38">
-        <v>0</v>
-      </c>
-      <c r="C15" s="38">
+      <c r="B15" s="37">
+        <v>0</v>
+      </c>
+      <c r="C15" s="37">
         <v>1.5</v>
       </c>
-      <c r="D15" s="38">
-        <v>0</v>
-      </c>
-      <c r="E15" s="38">
+      <c r="D15" s="37">
+        <v>0</v>
+      </c>
+      <c r="E15" s="37">
         <v>2</v>
       </c>
-      <c r="F15" s="38">
-        <v>1</v>
-      </c>
-      <c r="G15" s="38">
-        <v>0</v>
-      </c>
-      <c r="H15" s="38">
-        <v>1</v>
-      </c>
-      <c r="I15" s="48">
+      <c r="F15" s="37">
+        <v>1</v>
+      </c>
+      <c r="G15" s="37">
+        <v>0</v>
+      </c>
+      <c r="H15" s="37">
+        <v>1</v>
+      </c>
+      <c r="I15" s="47">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="38">
-        <v>0</v>
-      </c>
-      <c r="C16" s="38">
+      <c r="B16" s="37">
+        <v>0</v>
+      </c>
+      <c r="C16" s="37">
         <v>1.5</v>
       </c>
-      <c r="D16" s="38">
-        <v>0</v>
-      </c>
-      <c r="E16" s="38">
-        <v>0</v>
-      </c>
-      <c r="F16" s="38">
-        <v>1</v>
-      </c>
-      <c r="G16" s="38">
-        <v>0</v>
-      </c>
-      <c r="H16" s="38">
-        <v>1</v>
-      </c>
-      <c r="I16" s="48">
+      <c r="D16" s="37">
+        <v>0</v>
+      </c>
+      <c r="E16" s="37">
+        <v>0</v>
+      </c>
+      <c r="F16" s="37">
+        <v>1</v>
+      </c>
+      <c r="G16" s="37">
+        <v>0</v>
+      </c>
+      <c r="H16" s="37">
+        <v>1</v>
+      </c>
+      <c r="I16" s="47">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="38">
-        <v>0</v>
-      </c>
-      <c r="C17" s="38">
+      <c r="B17" s="37">
+        <v>0</v>
+      </c>
+      <c r="C17" s="37">
         <v>1.5</v>
       </c>
-      <c r="D17" s="38">
-        <v>0</v>
-      </c>
-      <c r="E17" s="38">
-        <v>0</v>
-      </c>
-      <c r="F17" s="38">
-        <v>1</v>
-      </c>
-      <c r="G17" s="38">
-        <v>0</v>
-      </c>
-      <c r="H17" s="38">
-        <v>1</v>
-      </c>
-      <c r="I17" s="48">
+      <c r="D17" s="37">
+        <v>0</v>
+      </c>
+      <c r="E17" s="37">
+        <v>0</v>
+      </c>
+      <c r="F17" s="37">
+        <v>1</v>
+      </c>
+      <c r="G17" s="37">
+        <v>0</v>
+      </c>
+      <c r="H17" s="37">
+        <v>1</v>
+      </c>
+      <c r="I17" s="47">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="38">
-        <v>0</v>
-      </c>
-      <c r="C18" s="38">
+      <c r="B18" s="37">
+        <v>0</v>
+      </c>
+      <c r="C18" s="37">
         <v>0.5</v>
       </c>
-      <c r="D18" s="38">
-        <v>0</v>
-      </c>
-      <c r="E18" s="38">
-        <v>0</v>
-      </c>
-      <c r="F18" s="38">
+      <c r="D18" s="37">
+        <v>0</v>
+      </c>
+      <c r="E18" s="37">
+        <v>0</v>
+      </c>
+      <c r="F18" s="37">
         <v>2</v>
       </c>
-      <c r="G18" s="38">
-        <v>0</v>
-      </c>
-      <c r="H18" s="38">
-        <v>0</v>
-      </c>
-      <c r="I18" s="48">
+      <c r="G18" s="37">
+        <v>0</v>
+      </c>
+      <c r="H18" s="37">
+        <v>0</v>
+      </c>
+      <c r="I18" s="47">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="38">
-        <v>0</v>
-      </c>
-      <c r="C19" s="38">
-        <v>1</v>
-      </c>
-      <c r="D19" s="38">
-        <v>0</v>
-      </c>
-      <c r="E19" s="38">
-        <v>0</v>
-      </c>
-      <c r="F19" s="38">
-        <v>1</v>
-      </c>
-      <c r="G19" s="38">
-        <v>0</v>
-      </c>
-      <c r="H19" s="38">
-        <v>0</v>
-      </c>
-      <c r="I19" s="48">
+      <c r="B19" s="37">
+        <v>0</v>
+      </c>
+      <c r="C19" s="37">
+        <v>1</v>
+      </c>
+      <c r="D19" s="37">
+        <v>0</v>
+      </c>
+      <c r="E19" s="37">
+        <v>0</v>
+      </c>
+      <c r="F19" s="37">
+        <v>1</v>
+      </c>
+      <c r="G19" s="37">
+        <v>0</v>
+      </c>
+      <c r="H19" s="37">
+        <v>0</v>
+      </c>
+      <c r="I19" s="47">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="38">
-        <v>0</v>
-      </c>
-      <c r="C20" s="38">
-        <v>1</v>
-      </c>
-      <c r="D20" s="38">
-        <v>0</v>
-      </c>
-      <c r="E20" s="38">
-        <v>0</v>
-      </c>
-      <c r="F20" s="38">
-        <v>0</v>
-      </c>
-      <c r="G20" s="38">
-        <v>0</v>
-      </c>
-      <c r="H20" s="38">
-        <v>0</v>
-      </c>
-      <c r="I20" s="48">
+      <c r="B20" s="37">
+        <v>0</v>
+      </c>
+      <c r="C20" s="37">
+        <v>1</v>
+      </c>
+      <c r="D20" s="37">
+        <v>0</v>
+      </c>
+      <c r="E20" s="37">
+        <v>0</v>
+      </c>
+      <c r="F20" s="37">
+        <v>0</v>
+      </c>
+      <c r="G20" s="37">
+        <v>0</v>
+      </c>
+      <c r="H20" s="37">
+        <v>0</v>
+      </c>
+      <c r="I20" s="47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="38">
-        <v>0</v>
-      </c>
-      <c r="C21" s="38">
-        <v>0</v>
-      </c>
-      <c r="D21" s="38">
-        <v>0</v>
-      </c>
-      <c r="E21" s="38">
-        <v>0</v>
-      </c>
-      <c r="F21" s="38">
-        <v>0</v>
-      </c>
-      <c r="G21" s="38">
-        <v>0</v>
-      </c>
-      <c r="H21" s="38">
-        <v>0</v>
-      </c>
-      <c r="I21" s="48">
+      <c r="B21" s="37">
+        <v>0</v>
+      </c>
+      <c r="C21" s="37">
+        <v>0</v>
+      </c>
+      <c r="D21" s="37">
+        <v>0</v>
+      </c>
+      <c r="E21" s="37">
+        <v>0</v>
+      </c>
+      <c r="F21" s="37">
+        <v>0</v>
+      </c>
+      <c r="G21" s="37">
+        <v>0</v>
+      </c>
+      <c r="H21" s="37">
+        <v>0</v>
+      </c>
+      <c r="I21" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.95" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="51">
-        <v>0</v>
-      </c>
-      <c r="C22" s="51">
-        <v>0</v>
-      </c>
-      <c r="D22" s="51">
-        <v>0</v>
-      </c>
-      <c r="E22" s="51">
-        <v>0</v>
-      </c>
-      <c r="F22" s="51">
-        <v>0</v>
-      </c>
-      <c r="G22" s="51">
-        <v>0</v>
-      </c>
-      <c r="H22" s="51">
-        <v>0</v>
-      </c>
-      <c r="I22" s="52">
+      <c r="B22" s="50">
+        <v>0</v>
+      </c>
+      <c r="C22" s="50">
+        <v>0</v>
+      </c>
+      <c r="D22" s="50">
+        <v>0</v>
+      </c>
+      <c r="E22" s="50">
+        <v>0</v>
+      </c>
+      <c r="F22" s="50">
+        <v>0</v>
+      </c>
+      <c r="G22" s="50">
+        <v>0</v>
+      </c>
+      <c r="H22" s="50">
+        <v>0</v>
+      </c>
+      <c r="I22" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="I23" s="41" t="s">
+      <c r="B23" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I23" s="40" t="s">
         <v>118</v>
       </c>
       <c r="J23" s="4" t="s">
@@ -3464,31 +3551,31 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="I24" s="38" t="s">
+      <c r="B24" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" s="37" t="s">
         <v>118</v>
       </c>
       <c r="J24" s="4" t="s">
@@ -3537,7 +3624,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.21875" defaultRowHeight="15.7" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3555,88 +3642,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55"/>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="56" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B2" s="52">
         <v>14</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="52">
         <v>10.5</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="52">
         <v>16</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="52">
         <v>12</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="52">
         <v>9</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="52">
         <v>6.5</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="52">
         <v>12</v>
       </c>
-      <c r="I2" s="59">
+      <c r="I2" s="58">
         <f t="shared" ref="I2:I24" si="0">SUM(B2:H2)</f>
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" s="61" t="s">
+      <c r="B3" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="60" t="s">
         <v>118</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -3644,31 +3731,31 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="I4" s="61" t="s">
+      <c r="B4" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="60" t="s">
         <v>118</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -3676,31 +3763,31 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="61" t="s">
+      <c r="B5" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="60" t="s">
         <v>118</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -3708,31 +3795,31 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="I6" s="61" t="s">
+      <c r="B6" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" s="60" t="s">
         <v>118</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -3740,31 +3827,31 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="I7" s="61" t="s">
+      <c r="B7" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="60" t="s">
         <v>118</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -3772,31 +3859,31 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" s="61" t="s">
+      <c r="B8" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="60" t="s">
         <v>118</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -3804,481 +3891,481 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="53">
         <v>2</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="53">
         <v>1.5</v>
       </c>
-      <c r="D9" s="54">
-        <v>0</v>
-      </c>
-      <c r="E9" s="54">
-        <v>0</v>
-      </c>
-      <c r="F9" s="54">
+      <c r="D9" s="53">
+        <v>0</v>
+      </c>
+      <c r="E9" s="53">
+        <v>0</v>
+      </c>
+      <c r="F9" s="53">
         <v>3</v>
       </c>
-      <c r="G9" s="54">
-        <v>0</v>
-      </c>
-      <c r="H9" s="54">
+      <c r="G9" s="53">
+        <v>0</v>
+      </c>
+      <c r="H9" s="53">
         <v>4</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="63">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="54">
-        <v>0</v>
-      </c>
-      <c r="C10" s="54">
+      <c r="B10" s="53">
+        <v>0</v>
+      </c>
+      <c r="C10" s="53">
         <v>1.5</v>
       </c>
-      <c r="D10" s="54">
-        <v>0</v>
-      </c>
-      <c r="E10" s="54">
+      <c r="D10" s="53">
+        <v>0</v>
+      </c>
+      <c r="E10" s="53">
         <v>2</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="53">
         <v>2</v>
       </c>
-      <c r="G10" s="54">
+      <c r="G10" s="53">
         <v>3</v>
       </c>
-      <c r="H10" s="54">
-        <v>1</v>
-      </c>
-      <c r="I10" s="64">
+      <c r="H10" s="53">
+        <v>1</v>
+      </c>
+      <c r="I10" s="63">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="54">
-        <v>0</v>
-      </c>
-      <c r="C11" s="54">
+      <c r="B11" s="53">
+        <v>0</v>
+      </c>
+      <c r="C11" s="53">
         <v>2</v>
       </c>
-      <c r="D11" s="54">
-        <v>0</v>
-      </c>
-      <c r="E11" s="54">
+      <c r="D11" s="53">
+        <v>0</v>
+      </c>
+      <c r="E11" s="53">
         <v>2</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="53">
         <v>3.5</v>
       </c>
-      <c r="G11" s="54">
-        <v>0</v>
-      </c>
-      <c r="H11" s="54">
-        <v>1</v>
-      </c>
-      <c r="I11" s="64">
+      <c r="G11" s="53">
+        <v>0</v>
+      </c>
+      <c r="H11" s="53">
+        <v>1</v>
+      </c>
+      <c r="I11" s="63">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="54">
-        <v>0</v>
-      </c>
-      <c r="C12" s="54">
-        <v>0</v>
-      </c>
-      <c r="D12" s="54">
-        <v>0</v>
-      </c>
-      <c r="E12" s="54">
+      <c r="B12" s="53">
+        <v>0</v>
+      </c>
+      <c r="C12" s="53">
+        <v>0</v>
+      </c>
+      <c r="D12" s="53">
+        <v>0</v>
+      </c>
+      <c r="E12" s="53">
         <v>4</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="53">
         <v>3</v>
       </c>
-      <c r="G12" s="54">
-        <v>0</v>
-      </c>
-      <c r="H12" s="54">
-        <v>1</v>
-      </c>
-      <c r="I12" s="64">
+      <c r="G12" s="53">
+        <v>0</v>
+      </c>
+      <c r="H12" s="53">
+        <v>1</v>
+      </c>
+      <c r="I12" s="63">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="54">
-        <v>0</v>
-      </c>
-      <c r="C13" s="54">
-        <v>0</v>
-      </c>
-      <c r="D13" s="54">
-        <v>0</v>
-      </c>
-      <c r="E13" s="54">
+      <c r="B13" s="53">
+        <v>0</v>
+      </c>
+      <c r="C13" s="53">
+        <v>0</v>
+      </c>
+      <c r="D13" s="53">
+        <v>0</v>
+      </c>
+      <c r="E13" s="53">
         <v>4</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="53">
         <v>2</v>
       </c>
-      <c r="G13" s="54">
-        <v>0</v>
-      </c>
-      <c r="H13" s="54">
-        <v>1</v>
-      </c>
-      <c r="I13" s="64">
+      <c r="G13" s="53">
+        <v>0</v>
+      </c>
+      <c r="H13" s="53">
+        <v>1</v>
+      </c>
+      <c r="I13" s="63">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="54">
-        <v>0</v>
-      </c>
-      <c r="C14" s="54">
+      <c r="B14" s="53">
+        <v>0</v>
+      </c>
+      <c r="C14" s="53">
         <v>1.5</v>
       </c>
-      <c r="D14" s="54">
-        <v>0</v>
-      </c>
-      <c r="E14" s="54">
-        <v>0</v>
-      </c>
-      <c r="F14" s="54">
-        <v>0</v>
-      </c>
-      <c r="G14" s="54">
-        <v>0</v>
-      </c>
-      <c r="H14" s="54">
+      <c r="D14" s="53">
+        <v>0</v>
+      </c>
+      <c r="E14" s="53">
+        <v>0</v>
+      </c>
+      <c r="F14" s="53">
+        <v>0</v>
+      </c>
+      <c r="G14" s="53">
+        <v>0</v>
+      </c>
+      <c r="H14" s="53">
         <v>4</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="63">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="54">
-        <v>0</v>
-      </c>
-      <c r="C15" s="54">
+      <c r="B15" s="53">
+        <v>0</v>
+      </c>
+      <c r="C15" s="53">
         <v>1.5</v>
       </c>
-      <c r="D15" s="54">
-        <v>0</v>
-      </c>
-      <c r="E15" s="54">
-        <v>0</v>
-      </c>
-      <c r="F15" s="54">
+      <c r="D15" s="53">
+        <v>0</v>
+      </c>
+      <c r="E15" s="53">
+        <v>0</v>
+      </c>
+      <c r="F15" s="53">
         <v>2</v>
       </c>
-      <c r="G15" s="54">
-        <v>0</v>
-      </c>
-      <c r="H15" s="54">
-        <v>1</v>
-      </c>
-      <c r="I15" s="64">
+      <c r="G15" s="53">
+        <v>0</v>
+      </c>
+      <c r="H15" s="53">
+        <v>1</v>
+      </c>
+      <c r="I15" s="63">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="54">
-        <v>0</v>
-      </c>
-      <c r="C16" s="54">
-        <v>0</v>
-      </c>
-      <c r="D16" s="54">
-        <v>0</v>
-      </c>
-      <c r="E16" s="54">
-        <v>0</v>
-      </c>
-      <c r="F16" s="54">
+      <c r="B16" s="53">
+        <v>0</v>
+      </c>
+      <c r="C16" s="53">
+        <v>0</v>
+      </c>
+      <c r="D16" s="53">
+        <v>0</v>
+      </c>
+      <c r="E16" s="53">
+        <v>0</v>
+      </c>
+      <c r="F16" s="53">
         <v>3</v>
       </c>
-      <c r="G16" s="54">
-        <v>0</v>
-      </c>
-      <c r="H16" s="54">
-        <v>0</v>
-      </c>
-      <c r="I16" s="64">
+      <c r="G16" s="53">
+        <v>0</v>
+      </c>
+      <c r="H16" s="53">
+        <v>0</v>
+      </c>
+      <c r="I16" s="63">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="54">
-        <v>0</v>
-      </c>
-      <c r="C17" s="54">
-        <v>0</v>
-      </c>
-      <c r="D17" s="54">
-        <v>0</v>
-      </c>
-      <c r="E17" s="54">
-        <v>0</v>
-      </c>
-      <c r="F17" s="54">
+      <c r="B17" s="53">
+        <v>0</v>
+      </c>
+      <c r="C17" s="53">
+        <v>0</v>
+      </c>
+      <c r="D17" s="53">
+        <v>0</v>
+      </c>
+      <c r="E17" s="53">
+        <v>0</v>
+      </c>
+      <c r="F17" s="53">
         <v>2</v>
       </c>
-      <c r="G17" s="54">
-        <v>0</v>
-      </c>
-      <c r="H17" s="54">
-        <v>1</v>
-      </c>
-      <c r="I17" s="64">
+      <c r="G17" s="53">
+        <v>0</v>
+      </c>
+      <c r="H17" s="53">
+        <v>1</v>
+      </c>
+      <c r="I17" s="63">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="54">
+      <c r="B18" s="53">
         <v>1.5</v>
       </c>
-      <c r="C18" s="54">
-        <v>0</v>
-      </c>
-      <c r="D18" s="54">
-        <v>0</v>
-      </c>
-      <c r="E18" s="54">
-        <v>0</v>
-      </c>
-      <c r="F18" s="54">
-        <v>1</v>
-      </c>
-      <c r="G18" s="54">
-        <v>0</v>
-      </c>
-      <c r="H18" s="54">
-        <v>0</v>
-      </c>
-      <c r="I18" s="64">
+      <c r="C18" s="53">
+        <v>0</v>
+      </c>
+      <c r="D18" s="53">
+        <v>0</v>
+      </c>
+      <c r="E18" s="53">
+        <v>0</v>
+      </c>
+      <c r="F18" s="53">
+        <v>1</v>
+      </c>
+      <c r="G18" s="53">
+        <v>0</v>
+      </c>
+      <c r="H18" s="53">
+        <v>0</v>
+      </c>
+      <c r="I18" s="63">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="54">
-        <v>0</v>
-      </c>
-      <c r="C19" s="54">
-        <v>0</v>
-      </c>
-      <c r="D19" s="54">
-        <v>0</v>
-      </c>
-      <c r="E19" s="54">
-        <v>0</v>
-      </c>
-      <c r="F19" s="54">
-        <v>1</v>
-      </c>
-      <c r="G19" s="54">
-        <v>0</v>
-      </c>
-      <c r="H19" s="54">
-        <v>1</v>
-      </c>
-      <c r="I19" s="64">
+      <c r="B19" s="53">
+        <v>0</v>
+      </c>
+      <c r="C19" s="53">
+        <v>0</v>
+      </c>
+      <c r="D19" s="53">
+        <v>0</v>
+      </c>
+      <c r="E19" s="53">
+        <v>0</v>
+      </c>
+      <c r="F19" s="53">
+        <v>1</v>
+      </c>
+      <c r="G19" s="53">
+        <v>0</v>
+      </c>
+      <c r="H19" s="53">
+        <v>1</v>
+      </c>
+      <c r="I19" s="63">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="54">
-        <v>0</v>
-      </c>
-      <c r="C20" s="54">
-        <v>0</v>
-      </c>
-      <c r="D20" s="54">
-        <v>0</v>
-      </c>
-      <c r="E20" s="54">
-        <v>0</v>
-      </c>
-      <c r="F20" s="54">
-        <v>1</v>
-      </c>
-      <c r="G20" s="54">
-        <v>0</v>
-      </c>
-      <c r="H20" s="54">
-        <v>1</v>
-      </c>
-      <c r="I20" s="64">
+      <c r="B20" s="53">
+        <v>0</v>
+      </c>
+      <c r="C20" s="53">
+        <v>0</v>
+      </c>
+      <c r="D20" s="53">
+        <v>0</v>
+      </c>
+      <c r="E20" s="53">
+        <v>0</v>
+      </c>
+      <c r="F20" s="53">
+        <v>1</v>
+      </c>
+      <c r="G20" s="53">
+        <v>0</v>
+      </c>
+      <c r="H20" s="53">
+        <v>1</v>
+      </c>
+      <c r="I20" s="63">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="54">
-        <v>0</v>
-      </c>
-      <c r="C21" s="54">
-        <v>0</v>
-      </c>
-      <c r="D21" s="54">
-        <v>0</v>
-      </c>
-      <c r="E21" s="54">
-        <v>0</v>
-      </c>
-      <c r="F21" s="54">
-        <v>0</v>
-      </c>
-      <c r="G21" s="54">
-        <v>0</v>
-      </c>
-      <c r="H21" s="54">
+      <c r="B21" s="53">
+        <v>0</v>
+      </c>
+      <c r="C21" s="53">
+        <v>0</v>
+      </c>
+      <c r="D21" s="53">
+        <v>0</v>
+      </c>
+      <c r="E21" s="53">
+        <v>0</v>
+      </c>
+      <c r="F21" s="53">
+        <v>0</v>
+      </c>
+      <c r="G21" s="53">
+        <v>0</v>
+      </c>
+      <c r="H21" s="53">
         <v>1.5</v>
       </c>
-      <c r="I21" s="64">
+      <c r="I21" s="63">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="54">
-        <v>0</v>
-      </c>
-      <c r="C22" s="54">
-        <v>0</v>
-      </c>
-      <c r="D22" s="54">
+      <c r="B22" s="53">
+        <v>0</v>
+      </c>
+      <c r="C22" s="53">
+        <v>0</v>
+      </c>
+      <c r="D22" s="53">
         <v>1.5</v>
       </c>
-      <c r="E22" s="54">
-        <v>0</v>
-      </c>
-      <c r="F22" s="54">
-        <v>0</v>
-      </c>
-      <c r="G22" s="54">
-        <v>0</v>
-      </c>
-      <c r="H22" s="54">
-        <v>0</v>
-      </c>
-      <c r="I22" s="64">
+      <c r="E22" s="53">
+        <v>0</v>
+      </c>
+      <c r="F22" s="53">
+        <v>0</v>
+      </c>
+      <c r="G22" s="53">
+        <v>0</v>
+      </c>
+      <c r="H22" s="53">
+        <v>0</v>
+      </c>
+      <c r="I22" s="63">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="54">
-        <v>0</v>
-      </c>
-      <c r="C23" s="54">
-        <v>0</v>
-      </c>
-      <c r="D23" s="54">
-        <v>0</v>
-      </c>
-      <c r="E23" s="54">
-        <v>0</v>
-      </c>
-      <c r="F23" s="54">
-        <v>0</v>
-      </c>
-      <c r="G23" s="54">
-        <v>0</v>
-      </c>
-      <c r="H23" s="54">
-        <v>1</v>
-      </c>
-      <c r="I23" s="64">
+      <c r="B23" s="53">
+        <v>0</v>
+      </c>
+      <c r="C23" s="53">
+        <v>0</v>
+      </c>
+      <c r="D23" s="53">
+        <v>0</v>
+      </c>
+      <c r="E23" s="53">
+        <v>0</v>
+      </c>
+      <c r="F23" s="53">
+        <v>0</v>
+      </c>
+      <c r="G23" s="53">
+        <v>0</v>
+      </c>
+      <c r="H23" s="53">
+        <v>1</v>
+      </c>
+      <c r="I23" s="63">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.95" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="66">
-        <v>0</v>
-      </c>
-      <c r="C24" s="66">
-        <v>0</v>
-      </c>
-      <c r="D24" s="66">
-        <v>0</v>
-      </c>
-      <c r="E24" s="66">
-        <v>0</v>
-      </c>
-      <c r="F24" s="66">
-        <v>0</v>
-      </c>
-      <c r="G24" s="66">
-        <v>0</v>
-      </c>
-      <c r="H24" s="66">
-        <v>1</v>
-      </c>
-      <c r="I24" s="67">
+      <c r="B24" s="65">
+        <v>0</v>
+      </c>
+      <c r="C24" s="65">
+        <v>0</v>
+      </c>
+      <c r="D24" s="65">
+        <v>0</v>
+      </c>
+      <c r="E24" s="65">
+        <v>0</v>
+      </c>
+      <c r="F24" s="65">
+        <v>0</v>
+      </c>
+      <c r="G24" s="65">
+        <v>0</v>
+      </c>
+      <c r="H24" s="65">
+        <v>1</v>
+      </c>
+      <c r="I24" s="66">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
